--- a/testing results.xlsx
+++ b/testing results.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jophs\OneDrive\Desktop\Spring 2021\CMPT417\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26FA001-7E47-48C6-9F4D-B4320EC3BB27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013B46B-3E69-45C4-B310-B2698E8FBAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D73C0DBF-5CB6-476E-B363-634DDA056996}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="5" xr2:uid="{D73C0DBF-5CB6-476E-B363-634DDA056996}"/>
   </bookViews>
   <sheets>
-    <sheet name="IDCBS Divider Basic" sheetId="1" r:id="rId1"/>
-    <sheet name="IDCBS Divider MDD" sheetId="3" r:id="rId2"/>
-    <sheet name="IDCBS Open Basic" sheetId="4" r:id="rId3"/>
-    <sheet name="IDCBS Open MDD" sheetId="5" r:id="rId4"/>
+    <sheet name="CBS Open Standard" sheetId="7" r:id="rId1"/>
+    <sheet name="IDCBS Open Standard" sheetId="4" r:id="rId2"/>
+    <sheet name="IDCBS Open MDD" sheetId="5" r:id="rId3"/>
+    <sheet name="CBS Divider Standard" sheetId="8" r:id="rId4"/>
+    <sheet name="IDCBS Divider Standard" sheetId="1" r:id="rId5"/>
+    <sheet name="IDCBS Divider MDD" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
   <si>
     <t>Nodes Generated:</t>
   </si>
@@ -69,13 +71,7 @@
     <t>Agents: 40</t>
   </si>
   <si>
-    <t>Divider Map - Basic Constraint Generator</t>
-  </si>
-  <si>
     <t>Divider Map - MDD Constraint Generator</t>
-  </si>
-  <si>
-    <t>Open Map - Basic Constraint Generator</t>
   </si>
   <si>
     <t>45 agents: about 5 seconds, 242 nodes generated, 121 nodes expanded, 94 max DFS bounds</t>
@@ -104,11 +100,53 @@
   <si>
     <t xml:space="preserve">37 agents is when it starts to run for a really long time </t>
   </si>
+  <si>
+    <t xml:space="preserve">CBS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 agents is when it starts to run for a really long time </t>
+  </si>
+  <si>
+    <t>25 agents: about 0.2 seconds, 37 nodes generated, 19 nodes expanded</t>
+  </si>
+  <si>
+    <t>26 agents: about 0.25 seconds, 39 nodes generated, 20 nodes expanded</t>
+  </si>
+  <si>
+    <t>Open Map - Standard Constraint Generator</t>
+  </si>
+  <si>
+    <t>Divider Map - Standard Constraint Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 agents is when it starts to run for a really long time </t>
+  </si>
+  <si>
+    <t>21 agents: about the same as 20 agents</t>
+  </si>
+  <si>
+    <t>32 agents: about 2 seconds, 156 nodes generated, 78 nodes expanded, 90 max DFS bounds</t>
+  </si>
+  <si>
+    <t>33 agents: about 6 seconds,  318 nodes generated, 159 nodes expanded, 91 max DFS bounds</t>
+  </si>
+  <si>
+    <t>34 agents: about 7 seconds, 414 nodes generated, 207 nodes expanded, 99 max DFS bounds</t>
+  </si>
+  <si>
+    <t>35 agents: about 510 seconds, 31464 nodes generated, 15732 nodes expanded, 106 max DFS bounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36 agents is when it starts to run for a really long time </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +196,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B2D36-B60E-4C90-8C3B-3DFADF59FDE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D6F2F9-94DD-454A-A0D6-9E5658BFDE3D}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,47 +531,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -536,38 +580,38 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>4.6215600000000003E-2</v>
+        <v>1.258708E-2</v>
       </c>
       <c r="C4">
-        <v>4.7354399999999998E-2</v>
+        <v>1.296711E-2</v>
       </c>
       <c r="D4">
-        <v>4.6883399999999999E-2</v>
+        <v>1.2975693E-2</v>
       </c>
       <c r="E4">
-        <v>4.6892099999999999E-2</v>
+        <v>1.2930870000000001E-2</v>
       </c>
       <c r="F4">
-        <v>4.6693800000000001E-2</v>
+        <v>1.2965918E-2</v>
       </c>
       <c r="G4">
-        <v>4.6041499999999999E-2</v>
+        <v>1.2854576E-2</v>
       </c>
       <c r="H4">
-        <v>4.5538099999999998E-2</v>
+        <v>1.3278722999999999E-2</v>
       </c>
       <c r="I4">
-        <v>4.6753200000000002E-2</v>
+        <v>1.2930631999999999E-2</v>
       </c>
       <c r="J4">
-        <v>4.5634000000000001E-2</v>
+        <v>1.2966633E-2</v>
       </c>
       <c r="K4">
-        <v>4.5908600000000001E-2</v>
-      </c>
-      <c r="L4" s="4">
+        <v>1.293277E-2</v>
+      </c>
+      <c r="L4" s="6">
         <f>AVERAGE(B4:K4)</f>
-        <v>4.6391470000000004E-2</v>
+        <v>1.2939000500000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -575,38 +619,38 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
         <f>AVERAGE(B5:K5)</f>
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -614,610 +658,298 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>14</v>
-      </c>
-      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="3">
         <f>AVERAGE(B6:K6)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4">
-        <f>AVERAGE(B7:K7)</f>
-        <v>9</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
-        <v>4</v>
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9.2017889000000005E-2</v>
+      </c>
+      <c r="C9">
+        <v>9.4060659000000005E-2</v>
+      </c>
+      <c r="D9">
+        <v>9.3867778999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.2294454999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>9.3747377000000007E-2</v>
+      </c>
+      <c r="G9">
+        <v>9.2749357000000004E-2</v>
+      </c>
+      <c r="H9">
+        <v>9.1732501999999994E-2</v>
+      </c>
+      <c r="I9">
+        <v>9.4684600999999993E-2</v>
+      </c>
+      <c r="J9">
+        <v>9.9730253000000005E-2</v>
+      </c>
+      <c r="K9">
+        <v>9.6106767999999995E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <f>AVERAGE(B9:K9)</f>
+        <v>9.4099163999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>0.10840900000000001</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.1043862</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>0.1050518</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>0.1036612</v>
+        <v>23</v>
       </c>
       <c r="F10">
-        <v>0.1060948</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>0.10460120000000001</v>
+        <v>23</v>
       </c>
       <c r="H10">
-        <v>0.10409549999999999</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>0.1050483</v>
+        <v>23</v>
       </c>
       <c r="J10">
-        <v>0.10308290000000001</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.1067681</v>
-      </c>
-      <c r="L10" s="4">
+        <v>23</v>
+      </c>
+      <c r="L10" s="3">
         <f>AVERAGE(B10:K10)</f>
-        <v>0.1051199</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <f>AVERAGE(B11:K11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="e">
+        <f>AVERAGE(B14:K14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>24</v>
-      </c>
-      <c r="H11">
-        <v>24</v>
-      </c>
-      <c r="I11">
-        <v>24</v>
-      </c>
-      <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11">
-        <v>24</v>
-      </c>
-      <c r="L11" s="4">
-        <f>AVERAGE(B11:K11)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>12</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12">
-        <v>12</v>
-      </c>
-      <c r="I12">
-        <v>12</v>
-      </c>
-      <c r="J12">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>12</v>
-      </c>
-      <c r="L12" s="4">
-        <f>AVERAGE(B12:K12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4">
-        <f>AVERAGE(B13:K13)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4" t="s">
-        <v>4</v>
+      <c r="L15" s="3" t="e">
+        <f>AVERAGE(B15:K15)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>29.550264599999998</v>
-      </c>
-      <c r="C16">
-        <v>28.616456599999999</v>
-      </c>
-      <c r="D16">
-        <v>26.689609399999998</v>
-      </c>
-      <c r="E16">
-        <v>27.716377099999999</v>
-      </c>
-      <c r="F16">
-        <v>27.0412757</v>
-      </c>
-      <c r="G16">
-        <v>27.428801199999999</v>
-      </c>
-      <c r="H16">
-        <v>27.4190562</v>
-      </c>
-      <c r="I16">
-        <v>28.172379800000002</v>
-      </c>
-      <c r="J16">
-        <v>27.3827462</v>
-      </c>
-      <c r="K16">
-        <v>27.514216900000001</v>
-      </c>
-      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="e">
         <f>AVERAGE(B16:K16)</f>
-        <v>27.753118369999999</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>2906</v>
-      </c>
-      <c r="C17">
-        <v>2906</v>
-      </c>
-      <c r="D17">
-        <v>2906</v>
-      </c>
-      <c r="E17">
-        <v>2906</v>
-      </c>
-      <c r="F17">
-        <v>2906</v>
-      </c>
-      <c r="G17">
-        <v>2906</v>
-      </c>
-      <c r="H17">
-        <v>2906</v>
-      </c>
-      <c r="I17">
-        <v>2906</v>
-      </c>
-      <c r="J17">
-        <v>2906</v>
-      </c>
-      <c r="K17">
-        <v>2906</v>
-      </c>
-      <c r="L17" s="4">
-        <f>AVERAGE(B17:K17)</f>
-        <v>2906</v>
-      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1453</v>
-      </c>
-      <c r="C18">
-        <v>1453</v>
-      </c>
-      <c r="D18">
-        <v>1453</v>
-      </c>
-      <c r="E18">
-        <v>1453</v>
-      </c>
-      <c r="F18">
-        <v>1453</v>
-      </c>
-      <c r="G18">
-        <v>1453</v>
-      </c>
-      <c r="H18">
-        <v>1453</v>
-      </c>
-      <c r="I18">
-        <v>1453</v>
-      </c>
-      <c r="J18">
-        <v>1453</v>
-      </c>
-      <c r="K18">
-        <v>1453</v>
-      </c>
-      <c r="L18" s="4">
-        <f>AVERAGE(B18:K18)</f>
-        <v>1453</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>78</v>
-      </c>
-      <c r="C19">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>78</v>
-      </c>
-      <c r="F19">
-        <v>78</v>
-      </c>
-      <c r="G19">
-        <v>78</v>
-      </c>
-      <c r="H19">
-        <v>78</v>
-      </c>
-      <c r="I19">
-        <v>78</v>
-      </c>
-      <c r="J19">
-        <v>78</v>
-      </c>
-      <c r="K19">
-        <v>78</v>
-      </c>
-      <c r="L19" s="4">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3" t="e">
         <f>AVERAGE(B19:K19)</f>
-        <v>78</v>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="e">
+        <f>AVERAGE(B20:K20)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4" t="s">
-        <v>4</v>
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="e">
+        <f>AVERAGE(B21:K21)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>116.00289890000001</v>
-      </c>
-      <c r="C22">
-        <v>122.95642170000001</v>
-      </c>
-      <c r="D22">
-        <v>119.3522564</v>
-      </c>
-      <c r="E22">
-        <v>120.601828</v>
-      </c>
-      <c r="F22">
-        <v>121.78551849999999</v>
-      </c>
-      <c r="G22">
-        <v>116.74457099999999</v>
-      </c>
-      <c r="H22">
-        <v>121.3409757</v>
-      </c>
-      <c r="I22">
-        <v>118.92925219999999</v>
-      </c>
-      <c r="J22">
-        <v>122.8221341</v>
-      </c>
-      <c r="K22">
-        <v>121.3050588</v>
-      </c>
-      <c r="L22" s="4">
-        <f>AVERAGE(B22:K22)</f>
-        <v>120.18409153</v>
-      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>6898</v>
-      </c>
-      <c r="C23">
-        <v>6898</v>
-      </c>
-      <c r="D23">
-        <v>6898</v>
-      </c>
-      <c r="E23">
-        <v>6898</v>
-      </c>
-      <c r="F23">
-        <v>6898</v>
-      </c>
-      <c r="G23">
-        <v>6898</v>
-      </c>
-      <c r="H23">
-        <v>6898</v>
-      </c>
-      <c r="I23">
-        <v>6898</v>
-      </c>
-      <c r="J23">
-        <v>6898</v>
-      </c>
-      <c r="K23">
-        <v>6898</v>
-      </c>
-      <c r="L23" s="4">
-        <f>AVERAGE(B23:K23)</f>
-        <v>6898</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>3449</v>
-      </c>
-      <c r="C24">
-        <v>3449</v>
-      </c>
-      <c r="D24">
-        <v>3449</v>
-      </c>
-      <c r="E24">
-        <v>3449</v>
-      </c>
-      <c r="F24">
-        <v>3449</v>
-      </c>
-      <c r="G24">
-        <v>3449</v>
-      </c>
-      <c r="H24">
-        <v>3449</v>
-      </c>
-      <c r="I24">
-        <v>3449</v>
-      </c>
-      <c r="J24">
-        <v>3449</v>
-      </c>
-      <c r="K24">
-        <v>3449</v>
-      </c>
-      <c r="L24" s="4">
-        <f>AVERAGE(B24:K24)</f>
-        <v>3449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>147</v>
-      </c>
-      <c r="C25">
-        <v>147</v>
-      </c>
-      <c r="D25">
-        <v>147</v>
-      </c>
-      <c r="E25">
-        <v>147</v>
-      </c>
-      <c r="F25">
-        <v>147</v>
-      </c>
-      <c r="G25">
-        <v>147</v>
-      </c>
-      <c r="H25">
-        <v>147</v>
-      </c>
-      <c r="I25">
-        <v>147</v>
-      </c>
-      <c r="J25">
-        <v>147</v>
-      </c>
-      <c r="K25">
-        <v>147</v>
-      </c>
-      <c r="L25" s="4">
-        <f>AVERAGE(B25:K25)</f>
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1225,61 +957,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145A2EAC-58B8-41AB-ABBD-8E6E159C9BF0}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3C389E-0394-4FFE-B28D-8AE7937FDA34}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1288,38 +1020,38 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3.9764899999999999E-2</v>
+        <v>1.45256E-2</v>
       </c>
       <c r="C4">
-        <v>3.9105099999999997E-2</v>
+        <v>1.44723E-2</v>
       </c>
       <c r="D4">
-        <v>3.9102900000000003E-2</v>
+        <v>1.45521E-2</v>
       </c>
       <c r="E4">
-        <v>3.9558599999999999E-2</v>
+        <v>1.4330499999999999E-2</v>
       </c>
       <c r="F4">
-        <v>3.9067299999999999E-2</v>
+        <v>1.4486199999999999E-2</v>
       </c>
       <c r="G4">
-        <v>3.9881100000000003E-2</v>
+        <v>1.4142099999999999E-2</v>
       </c>
       <c r="H4">
-        <v>3.9327599999999997E-2</v>
+        <v>1.48772E-2</v>
       </c>
       <c r="I4">
-        <v>3.9380900000000003E-2</v>
+        <v>1.46947E-2</v>
       </c>
       <c r="J4">
-        <v>3.9595699999999998E-2</v>
+        <v>1.47087E-2</v>
       </c>
       <c r="K4">
-        <v>3.9084000000000001E-2</v>
-      </c>
-      <c r="L4" s="4">
+        <v>1.4623799999999999E-2</v>
+      </c>
+      <c r="L4" s="3">
         <f>AVERAGE(B4:K4)</f>
-        <v>3.9386810000000001E-2</v>
+        <v>1.454132E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1327,38 +1059,38 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
         <f>AVERAGE(B5:K5)</f>
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1366,38 +1098,38 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="3">
         <f>AVERAGE(B6:K6)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1405,55 +1137,55 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
         <f>AVERAGE(B7:K7)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1462,38 +1194,38 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1480725</v>
+        <v>0.25889420000000002</v>
       </c>
       <c r="C10">
-        <v>0.15023110000000001</v>
+        <v>0.2495636</v>
       </c>
       <c r="D10">
-        <v>0.1477406</v>
+        <v>0.25445069999999997</v>
       </c>
       <c r="E10">
-        <v>0.15084120000000001</v>
+        <v>0.2484104</v>
       </c>
       <c r="F10">
-        <v>0.14659829999999999</v>
+        <v>0.24956449999999999</v>
       </c>
       <c r="G10">
-        <v>0.149588</v>
+        <v>0.24961069999999999</v>
       </c>
       <c r="H10">
-        <v>0.1462783</v>
+        <v>0.2518727</v>
       </c>
       <c r="I10">
-        <v>0.14813370000000001</v>
+        <v>0.24977650000000001</v>
       </c>
       <c r="J10">
-        <v>0.15801580000000001</v>
+        <v>0.25419570000000002</v>
       </c>
       <c r="K10">
-        <v>0.14544770000000001</v>
-      </c>
-      <c r="L10" s="4">
+        <v>0.25634240000000003</v>
+      </c>
+      <c r="L10" s="3">
         <f>AVERAGE(B10:K10)</f>
-        <v>0.14909472000000001</v>
+        <v>0.25226813999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1501,38 +1233,38 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="H11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>28</v>
-      </c>
-      <c r="L11" s="4">
+        <v>52</v>
+      </c>
+      <c r="L11" s="3">
         <f>AVERAGE(B11:K11)</f>
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1540,38 +1272,38 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J12">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>14</v>
-      </c>
-      <c r="L12" s="4">
+        <v>26</v>
+      </c>
+      <c r="L12" s="3">
         <f>AVERAGE(B12:K12)</f>
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1579,55 +1311,55 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K13">
-        <v>23</v>
-      </c>
-      <c r="L13" s="4">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3">
         <f>AVERAGE(B13:K13)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1636,38 +1368,38 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>1.8852428000000001</v>
+        <v>0.98898900000000001</v>
       </c>
       <c r="C16">
-        <v>1.7687044000000001</v>
+        <v>0.97381240000000002</v>
       </c>
       <c r="D16">
-        <v>1.8674366</v>
+        <v>0.9702556</v>
       </c>
       <c r="E16">
-        <v>1.9018373</v>
+        <v>0.95564199999999999</v>
       </c>
       <c r="F16">
-        <v>1.8294638000000001</v>
+        <v>0.96279510000000001</v>
       </c>
       <c r="G16">
-        <v>1.8720768999999999</v>
+        <v>1.0066337000000001</v>
       </c>
       <c r="H16">
-        <v>1.8918832000000001</v>
+        <v>0.95856850000000005</v>
       </c>
       <c r="I16">
-        <v>1.8374124999999999</v>
+        <v>0.9493878</v>
       </c>
       <c r="J16">
-        <v>1.7625664000000001</v>
+        <v>0.9543391</v>
       </c>
       <c r="K16">
-        <v>1.8801867000000001</v>
-      </c>
-      <c r="L16" s="4">
+        <v>0.95636100000000002</v>
+      </c>
+      <c r="L16" s="3">
         <f>AVERAGE(B16:K16)</f>
-        <v>1.84968106</v>
+        <v>0.96767842000000004</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1675,38 +1407,38 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="E17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="F17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="G17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="I17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="J17">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K17">
-        <v>152</v>
-      </c>
-      <c r="L17" s="4">
+        <v>114</v>
+      </c>
+      <c r="L17" s="3">
         <f>AVERAGE(B17:K17)</f>
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1714,38 +1446,38 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="G18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J18">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>76</v>
-      </c>
-      <c r="L18" s="4">
+        <v>57</v>
+      </c>
+      <c r="L18" s="3">
         <f>AVERAGE(B18:K18)</f>
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1753,55 +1485,55 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="G19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="I19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>75</v>
-      </c>
-      <c r="L19" s="4">
+        <v>41</v>
+      </c>
+      <c r="L19" s="3">
         <f>AVERAGE(B19:K19)</f>
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1809,36 +1541,181 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="4" t="e">
+      <c r="B22">
+        <v>3.2843469999999999</v>
+      </c>
+      <c r="C22">
+        <v>3.2804768000000002</v>
+      </c>
+      <c r="D22">
+        <v>3.8547197999999998</v>
+      </c>
+      <c r="E22">
+        <v>3.6044208000000002</v>
+      </c>
+      <c r="F22">
+        <v>3.2198726999999998</v>
+      </c>
+      <c r="G22">
+        <v>3.1606955999999999</v>
+      </c>
+      <c r="H22">
+        <v>3.4989151999999999</v>
+      </c>
+      <c r="I22">
+        <v>3.1490352000000001</v>
+      </c>
+      <c r="J22">
+        <v>3.3137560000000001</v>
+      </c>
+      <c r="K22">
+        <v>3.1429532999999998</v>
+      </c>
+      <c r="L22" s="3">
         <f>AVERAGE(B22:K22)</f>
-        <v>#DIV/0!</v>
+        <v>3.3509192400000005</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="4" t="e">
+      <c r="B23">
+        <v>202</v>
+      </c>
+      <c r="C23">
+        <v>202</v>
+      </c>
+      <c r="D23">
+        <v>202</v>
+      </c>
+      <c r="E23">
+        <v>202</v>
+      </c>
+      <c r="F23">
+        <v>202</v>
+      </c>
+      <c r="G23">
+        <v>202</v>
+      </c>
+      <c r="H23">
+        <v>202</v>
+      </c>
+      <c r="I23">
+        <v>202</v>
+      </c>
+      <c r="J23">
+        <v>202</v>
+      </c>
+      <c r="K23">
+        <v>202</v>
+      </c>
+      <c r="L23" s="3">
         <f>AVERAGE(B23:K23)</f>
-        <v>#DIV/0!</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="4" t="e">
+      <c r="B24">
+        <v>101</v>
+      </c>
+      <c r="C24">
+        <v>101</v>
+      </c>
+      <c r="D24">
+        <v>101</v>
+      </c>
+      <c r="E24">
+        <v>101</v>
+      </c>
+      <c r="F24">
+        <v>101</v>
+      </c>
+      <c r="G24">
+        <v>101</v>
+      </c>
+      <c r="H24">
+        <v>101</v>
+      </c>
+      <c r="I24">
+        <v>101</v>
+      </c>
+      <c r="J24">
+        <v>101</v>
+      </c>
+      <c r="K24">
+        <v>101</v>
+      </c>
+      <c r="L24" s="3">
         <f>AVERAGE(B24:K24)</f>
-        <v>#DIV/0!</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="4" t="e">
+      <c r="B25">
+        <v>86</v>
+      </c>
+      <c r="C25">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>86</v>
+      </c>
+      <c r="E25">
+        <v>86</v>
+      </c>
+      <c r="F25">
+        <v>86</v>
+      </c>
+      <c r="G25">
+        <v>86</v>
+      </c>
+      <c r="H25">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>86</v>
+      </c>
+      <c r="J25">
+        <v>86</v>
+      </c>
+      <c r="K25">
+        <v>86</v>
+      </c>
+      <c r="L25" s="3">
         <f>AVERAGE(B25:K25)</f>
-        <v>#DIV/0!</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1857,11 +1734,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3C389E-0394-4FFE-B28D-8AE7937FDA34}">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BC7A8-2981-40AF-A89C-FBF2B6748F72}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,47 +1748,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1920,38 +1797,38 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.45256E-2</v>
+        <v>1.59515E-2</v>
       </c>
       <c r="C4">
-        <v>1.44723E-2</v>
+        <v>1.5719899999999998E-2</v>
       </c>
       <c r="D4">
-        <v>1.45521E-2</v>
+        <v>1.5863100000000002E-2</v>
       </c>
       <c r="E4">
-        <v>1.4330499999999999E-2</v>
+        <v>1.51334E-2</v>
       </c>
       <c r="F4">
-        <v>1.4486199999999999E-2</v>
+        <v>1.5994000000000001E-2</v>
       </c>
       <c r="G4">
-        <v>1.4142099999999999E-2</v>
+        <v>1.5717600000000002E-2</v>
       </c>
       <c r="H4">
-        <v>1.48772E-2</v>
+        <v>1.5815099999999999E-2</v>
       </c>
       <c r="I4">
-        <v>1.46947E-2</v>
+        <v>1.5762700000000001E-2</v>
       </c>
       <c r="J4">
-        <v>1.47087E-2</v>
+        <v>1.5684699999999999E-2</v>
       </c>
       <c r="K4">
-        <v>1.4623799999999999E-2</v>
-      </c>
-      <c r="L4" s="4">
+        <v>1.5795799999999999E-2</v>
+      </c>
+      <c r="L4" s="3">
         <f>AVERAGE(B4:K4)</f>
-        <v>1.454132E-2</v>
+        <v>1.5743779999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1988,7 +1865,7 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="3">
         <f>AVERAGE(B5:K5)</f>
         <v>4</v>
       </c>
@@ -2027,7 +1904,7 @@
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <f>AVERAGE(B6:K6)</f>
         <v>2</v>
       </c>
@@ -2066,26 +1943,26 @@
       <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f>AVERAGE(B7:K7)</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2094,38 +1971,38 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.25889420000000002</v>
+        <v>0.12880759999999999</v>
       </c>
       <c r="C10">
-        <v>0.2495636</v>
+        <v>0.1283562</v>
       </c>
       <c r="D10">
-        <v>0.25445069999999997</v>
+        <v>0.13023950000000001</v>
       </c>
       <c r="E10">
-        <v>0.2484104</v>
+        <v>0.13051160000000001</v>
       </c>
       <c r="F10">
-        <v>0.24956449999999999</v>
+        <v>0.1269856</v>
       </c>
       <c r="G10">
-        <v>0.24961069999999999</v>
+        <v>0.12675929999999999</v>
       </c>
       <c r="H10">
-        <v>0.2518727</v>
+        <v>0.1282315</v>
       </c>
       <c r="I10">
-        <v>0.24977650000000001</v>
+        <v>0.1276602</v>
       </c>
       <c r="J10">
-        <v>0.25419570000000002</v>
+        <v>0.12808220000000001</v>
       </c>
       <c r="K10">
-        <v>0.25634240000000003</v>
-      </c>
-      <c r="L10" s="4">
+        <v>0.12831429999999999</v>
+      </c>
+      <c r="L10" s="3">
         <f>AVERAGE(B10:K10)</f>
-        <v>0.25226813999999997</v>
+        <v>0.1283948</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2133,38 +2010,38 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>52</v>
-      </c>
-      <c r="L11" s="4">
+        <v>24</v>
+      </c>
+      <c r="L11" s="3">
         <f>AVERAGE(B11:K11)</f>
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -2172,38 +2049,38 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>26</v>
-      </c>
-      <c r="L12" s="4">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3">
         <f>AVERAGE(B12:K12)</f>
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -2240,26 +2117,26 @@
       <c r="K13">
         <v>17</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <f>AVERAGE(B13:K13)</f>
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2268,38 +2145,38 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>0.98898900000000001</v>
+        <v>0.85906979999999999</v>
       </c>
       <c r="C16">
-        <v>0.97381240000000002</v>
+        <v>0.86024199999999995</v>
       </c>
       <c r="D16">
-        <v>0.9702556</v>
+        <v>0.87257779999999996</v>
       </c>
       <c r="E16">
-        <v>0.95564199999999999</v>
+        <v>0.85895849999999996</v>
       </c>
       <c r="F16">
-        <v>0.96279510000000001</v>
+        <v>0.85726530000000001</v>
       </c>
       <c r="G16">
-        <v>1.0066337000000001</v>
+        <v>0.87070479999999995</v>
       </c>
       <c r="H16">
-        <v>0.95856850000000005</v>
+        <v>0.86098629999999998</v>
       </c>
       <c r="I16">
-        <v>0.9493878</v>
+        <v>0.86944779999999999</v>
       </c>
       <c r="J16">
-        <v>0.9543391</v>
+        <v>0.85254099999999999</v>
       </c>
       <c r="K16">
-        <v>0.95636100000000002</v>
-      </c>
-      <c r="L16" s="4">
+        <v>0.85186229999999996</v>
+      </c>
+      <c r="L16" s="3">
         <f>AVERAGE(B16:K16)</f>
-        <v>0.96767842000000004</v>
+        <v>0.86136556000000009</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -2307,38 +2184,38 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="E17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="H17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="I17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="J17">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>114</v>
-      </c>
-      <c r="L17" s="4">
+        <v>88</v>
+      </c>
+      <c r="L17" s="3">
         <f>AVERAGE(B17:K17)</f>
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -2346,38 +2223,38 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J18">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>57</v>
-      </c>
-      <c r="L18" s="4">
+        <v>44</v>
+      </c>
+      <c r="L18" s="3">
         <f>AVERAGE(B18:K18)</f>
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -2414,26 +2291,26 @@
       <c r="K19">
         <v>41</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <f>AVERAGE(B19:K19)</f>
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2441,181 +2318,51 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22">
-        <v>3.2843469999999999</v>
-      </c>
-      <c r="C22">
-        <v>3.2804768000000002</v>
-      </c>
-      <c r="D22">
-        <v>3.8547197999999998</v>
-      </c>
-      <c r="E22">
-        <v>3.6044208000000002</v>
-      </c>
-      <c r="F22">
-        <v>3.2198726999999998</v>
-      </c>
-      <c r="G22">
-        <v>3.1606955999999999</v>
-      </c>
-      <c r="H22">
-        <v>3.4989151999999999</v>
-      </c>
-      <c r="I22">
-        <v>3.1490352000000001</v>
-      </c>
-      <c r="J22">
-        <v>3.3137560000000001</v>
-      </c>
-      <c r="K22">
-        <v>3.1429532999999998</v>
-      </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3" t="e">
         <f>AVERAGE(B22:K22)</f>
-        <v>3.3509192400000005</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23">
-        <v>202</v>
-      </c>
-      <c r="C23">
-        <v>202</v>
-      </c>
-      <c r="D23">
-        <v>202</v>
-      </c>
-      <c r="E23">
-        <v>202</v>
-      </c>
-      <c r="F23">
-        <v>202</v>
-      </c>
-      <c r="G23">
-        <v>202</v>
-      </c>
-      <c r="H23">
-        <v>202</v>
-      </c>
-      <c r="I23">
-        <v>202</v>
-      </c>
-      <c r="J23">
-        <v>202</v>
-      </c>
-      <c r="K23">
-        <v>202</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3" t="e">
         <f>AVERAGE(B23:K23)</f>
-        <v>202</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B24">
-        <v>101</v>
-      </c>
-      <c r="C24">
-        <v>101</v>
-      </c>
-      <c r="D24">
-        <v>101</v>
-      </c>
-      <c r="E24">
-        <v>101</v>
-      </c>
-      <c r="F24">
-        <v>101</v>
-      </c>
-      <c r="G24">
-        <v>101</v>
-      </c>
-      <c r="H24">
-        <v>101</v>
-      </c>
-      <c r="I24">
-        <v>101</v>
-      </c>
-      <c r="J24">
-        <v>101</v>
-      </c>
-      <c r="K24">
-        <v>101</v>
-      </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3" t="e">
         <f>AVERAGE(B24:K24)</f>
-        <v>101</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
-        <v>86</v>
-      </c>
-      <c r="C25">
-        <v>86</v>
-      </c>
-      <c r="D25">
-        <v>86</v>
-      </c>
-      <c r="E25">
-        <v>86</v>
-      </c>
-      <c r="F25">
-        <v>86</v>
-      </c>
-      <c r="G25">
-        <v>86</v>
-      </c>
-      <c r="H25">
-        <v>86</v>
-      </c>
-      <c r="I25">
-        <v>86</v>
-      </c>
-      <c r="J25">
-        <v>86</v>
-      </c>
-      <c r="K25">
-        <v>86</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3" t="e">
         <f>AVERAGE(B25:K25)</f>
-        <v>86</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2634,11 +2381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BC7A8-2981-40AF-A89C-FBF2B6748F72}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5B9A8F-BE96-4131-96E1-084693CC931E}">
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2648,47 +2395,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2.19092E-2</v>
+      </c>
+      <c r="C4">
+        <v>2.2175799999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>2.2905100000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.2936100000000001E-2</v>
+      </c>
+      <c r="F4">
+        <v>2.29118E-2</v>
+      </c>
+      <c r="G4">
+        <v>2.19052E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.1905399999999998E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.1941200000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>2.2910799999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>2.19407E-2</v>
+      </c>
+      <c r="L4" s="6">
+        <f>AVERAGE(B4:K4)</f>
+        <v>2.234413E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5" s="3">
+        <f>AVERAGE(B5:K5)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <f>AVERAGE(B6:K6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1076061</v>
+      </c>
+      <c r="C9">
+        <v>0.10626099999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.10778310000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.10567310000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.1066809</v>
+      </c>
+      <c r="G9">
+        <v>0.1062372</v>
+      </c>
+      <c r="H9">
+        <v>0.1067154</v>
+      </c>
+      <c r="I9">
+        <v>0.108711</v>
+      </c>
+      <c r="J9">
+        <v>0.1086669</v>
+      </c>
+      <c r="K9">
+        <v>0.1067193</v>
+      </c>
+      <c r="L9" s="6">
+        <f>AVERAGE(B9:K9)</f>
+        <v>0.10710540000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3">
+        <f>AVERAGE(B10:K10)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+      <c r="H11">
+        <v>14</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+      <c r="L11" s="3">
+        <f>AVERAGE(B11:K11)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="e">
+        <f>AVERAGE(B14:K14)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="e">
+        <f>AVERAGE(B15:K15)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="e">
+        <f>AVERAGE(B16:K16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3" t="e">
+        <f>AVERAGE(B19:K19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="e">
+        <f>AVERAGE(B20:K20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3" t="e">
+        <f>AVERAGE(B21:K21)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B13:K13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B2D36-B60E-4C90-8C3B-3DFADF59FDE3}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2697,38 +2879,38 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.59515E-2</v>
+        <v>4.6215600000000003E-2</v>
       </c>
       <c r="C4">
-        <v>1.5719899999999998E-2</v>
+        <v>4.7354399999999998E-2</v>
       </c>
       <c r="D4">
-        <v>1.5863100000000002E-2</v>
+        <v>4.6883399999999999E-2</v>
       </c>
       <c r="E4">
-        <v>1.51334E-2</v>
+        <v>4.6892099999999999E-2</v>
       </c>
       <c r="F4">
-        <v>1.5994000000000001E-2</v>
+        <v>4.6693800000000001E-2</v>
       </c>
       <c r="G4">
-        <v>1.5717600000000002E-2</v>
+        <v>4.6041499999999999E-2</v>
       </c>
       <c r="H4">
-        <v>1.5815099999999999E-2</v>
+        <v>4.5538099999999998E-2</v>
       </c>
       <c r="I4">
-        <v>1.5762700000000001E-2</v>
+        <v>4.6753200000000002E-2</v>
       </c>
       <c r="J4">
-        <v>1.5684699999999999E-2</v>
+        <v>4.5634000000000001E-2</v>
       </c>
       <c r="K4">
-        <v>1.5795799999999999E-2</v>
-      </c>
-      <c r="L4" s="4">
+        <v>4.5908600000000001E-2</v>
+      </c>
+      <c r="L4" s="3">
         <f>AVERAGE(B4:K4)</f>
-        <v>1.5743779999999999E-2</v>
+        <v>4.6391470000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2736,38 +2918,38 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5" s="4">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3">
         <f>AVERAGE(B5:K5)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -2775,38 +2957,38 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3">
         <f>AVERAGE(B6:K6)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -2814,55 +2996,55 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7" s="4">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3">
         <f>AVERAGE(B7:K7)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2871,38 +3053,38 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.12880759999999999</v>
+        <v>0.10840900000000001</v>
       </c>
       <c r="C10">
-        <v>0.1283562</v>
+        <v>0.1043862</v>
       </c>
       <c r="D10">
-        <v>0.13023950000000001</v>
+        <v>0.1050518</v>
       </c>
       <c r="E10">
-        <v>0.13051160000000001</v>
+        <v>0.1036612</v>
       </c>
       <c r="F10">
-        <v>0.1269856</v>
+        <v>0.1060948</v>
       </c>
       <c r="G10">
-        <v>0.12675929999999999</v>
+        <v>0.10460120000000001</v>
       </c>
       <c r="H10">
-        <v>0.1282315</v>
+        <v>0.10409549999999999</v>
       </c>
       <c r="I10">
-        <v>0.1276602</v>
+        <v>0.1050483</v>
       </c>
       <c r="J10">
-        <v>0.12808220000000001</v>
+        <v>0.10308290000000001</v>
       </c>
       <c r="K10">
-        <v>0.12831429999999999</v>
-      </c>
-      <c r="L10" s="4">
+        <v>0.1067681</v>
+      </c>
+      <c r="L10" s="3">
         <f>AVERAGE(B10:K10)</f>
-        <v>0.1283948</v>
+        <v>0.1051199</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -2939,7 +3121,7 @@
       <c r="K11">
         <v>24</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="3">
         <f>AVERAGE(B11:K11)</f>
         <v>24</v>
       </c>
@@ -2978,7 +3160,7 @@
       <c r="K12">
         <v>12</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <f>AVERAGE(B12:K12)</f>
         <v>12</v>
       </c>
@@ -2988,55 +3170,55 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J13">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K13">
-        <v>17</v>
-      </c>
-      <c r="L13" s="4">
+        <v>11</v>
+      </c>
+      <c r="L13" s="3">
         <f>AVERAGE(B13:K13)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3045,38 +3227,38 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <v>0.85906979999999999</v>
+        <v>29.550264599999998</v>
       </c>
       <c r="C16">
-        <v>0.86024199999999995</v>
+        <v>28.616456599999999</v>
       </c>
       <c r="D16">
-        <v>0.87257779999999996</v>
+        <v>26.689609399999998</v>
       </c>
       <c r="E16">
-        <v>0.85895849999999996</v>
+        <v>27.716377099999999</v>
       </c>
       <c r="F16">
-        <v>0.85726530000000001</v>
+        <v>27.0412757</v>
       </c>
       <c r="G16">
-        <v>0.87070479999999995</v>
+        <v>27.428801199999999</v>
       </c>
       <c r="H16">
-        <v>0.86098629999999998</v>
+        <v>27.4190562</v>
       </c>
       <c r="I16">
-        <v>0.86944779999999999</v>
+        <v>28.172379800000002</v>
       </c>
       <c r="J16">
-        <v>0.85254099999999999</v>
+        <v>27.3827462</v>
       </c>
       <c r="K16">
-        <v>0.85186229999999996</v>
-      </c>
-      <c r="L16" s="4">
+        <v>27.514216900000001</v>
+      </c>
+      <c r="L16" s="3">
         <f>AVERAGE(B16:K16)</f>
-        <v>0.86136556000000009</v>
+        <v>27.753118369999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3084,38 +3266,38 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="C17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="D17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="E17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="F17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="G17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="H17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="I17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="J17">
-        <v>88</v>
+        <v>2906</v>
       </c>
       <c r="K17">
-        <v>88</v>
-      </c>
-      <c r="L17" s="4">
+        <v>2906</v>
+      </c>
+      <c r="L17" s="3">
         <f>AVERAGE(B17:K17)</f>
-        <v>88</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3123,38 +3305,38 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="C18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="F18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="G18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="I18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="J18">
-        <v>44</v>
+        <v>1453</v>
       </c>
       <c r="K18">
-        <v>44</v>
-      </c>
-      <c r="L18" s="4">
+        <v>1453</v>
+      </c>
+      <c r="L18" s="3">
         <f>AVERAGE(B18:K18)</f>
-        <v>44</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3162,55 +3344,55 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="G19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="J19">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="K19">
-        <v>41</v>
-      </c>
-      <c r="L19" s="4">
+        <v>78</v>
+      </c>
+      <c r="L19" s="3">
         <f>AVERAGE(B19:K19)</f>
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="4" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3218,25 +3400,777 @@
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="4" t="e">
+      <c r="B22">
+        <v>116.00289890000001</v>
+      </c>
+      <c r="C22">
+        <v>122.95642170000001</v>
+      </c>
+      <c r="D22">
+        <v>119.3522564</v>
+      </c>
+      <c r="E22">
+        <v>120.601828</v>
+      </c>
+      <c r="F22">
+        <v>121.78551849999999</v>
+      </c>
+      <c r="G22">
+        <v>116.74457099999999</v>
+      </c>
+      <c r="H22">
+        <v>121.3409757</v>
+      </c>
+      <c r="I22">
+        <v>118.92925219999999</v>
+      </c>
+      <c r="J22">
+        <v>122.8221341</v>
+      </c>
+      <c r="K22">
+        <v>121.3050588</v>
+      </c>
+      <c r="L22" s="3">
         <f>AVERAGE(B22:K22)</f>
-        <v>#DIV/0!</v>
+        <v>120.18409153</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="4" t="e">
+      <c r="B23">
+        <v>6898</v>
+      </c>
+      <c r="C23">
+        <v>6898</v>
+      </c>
+      <c r="D23">
+        <v>6898</v>
+      </c>
+      <c r="E23">
+        <v>6898</v>
+      </c>
+      <c r="F23">
+        <v>6898</v>
+      </c>
+      <c r="G23">
+        <v>6898</v>
+      </c>
+      <c r="H23">
+        <v>6898</v>
+      </c>
+      <c r="I23">
+        <v>6898</v>
+      </c>
+      <c r="J23">
+        <v>6898</v>
+      </c>
+      <c r="K23">
+        <v>6898</v>
+      </c>
+      <c r="L23" s="3">
         <f>AVERAGE(B23:K23)</f>
-        <v>#DIV/0!</v>
+        <v>6898</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="4" t="e">
+      <c r="B24">
+        <v>3449</v>
+      </c>
+      <c r="C24">
+        <v>3449</v>
+      </c>
+      <c r="D24">
+        <v>3449</v>
+      </c>
+      <c r="E24">
+        <v>3449</v>
+      </c>
+      <c r="F24">
+        <v>3449</v>
+      </c>
+      <c r="G24">
+        <v>3449</v>
+      </c>
+      <c r="H24">
+        <v>3449</v>
+      </c>
+      <c r="I24">
+        <v>3449</v>
+      </c>
+      <c r="J24">
+        <v>3449</v>
+      </c>
+      <c r="K24">
+        <v>3449</v>
+      </c>
+      <c r="L24" s="3">
+        <f>AVERAGE(B24:K24)</f>
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>147</v>
+      </c>
+      <c r="C25">
+        <v>147</v>
+      </c>
+      <c r="D25">
+        <v>147</v>
+      </c>
+      <c r="E25">
+        <v>147</v>
+      </c>
+      <c r="F25">
+        <v>147</v>
+      </c>
+      <c r="G25">
+        <v>147</v>
+      </c>
+      <c r="H25">
+        <v>147</v>
+      </c>
+      <c r="I25">
+        <v>147</v>
+      </c>
+      <c r="J25">
+        <v>147</v>
+      </c>
+      <c r="K25">
+        <v>147</v>
+      </c>
+      <c r="L25" s="3">
+        <f>AVERAGE(B25:K25)</f>
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="E1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145A2EAC-58B8-41AB-ABBD-8E6E159C9BF0}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3.9764899999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.9105099999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.9102900000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.9558599999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.9067299999999999E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.9881100000000003E-2</v>
+      </c>
+      <c r="H4">
+        <v>3.9327599999999997E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.9380900000000003E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.9595699999999998E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.9084000000000001E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f>AVERAGE(B4:K4)</f>
+        <v>3.9386810000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5" s="3">
+        <f>AVERAGE(B5:K5)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3">
+        <f>AVERAGE(B6:K6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3">
+        <f>AVERAGE(B7:K7)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.1480725</v>
+      </c>
+      <c r="C10">
+        <v>0.15023110000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.1477406</v>
+      </c>
+      <c r="E10">
+        <v>0.15084120000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.14659829999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.149588</v>
+      </c>
+      <c r="H10">
+        <v>0.1462783</v>
+      </c>
+      <c r="I10">
+        <v>0.14813370000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.15801580000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.14544770000000001</v>
+      </c>
+      <c r="L10" s="3">
+        <f>AVERAGE(B10:K10)</f>
+        <v>0.14909472000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>28</v>
+      </c>
+      <c r="J11">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3">
+        <f>AVERAGE(B11:K11)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12" s="3">
+        <f>AVERAGE(B12:K12)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="F13">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <v>23</v>
+      </c>
+      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13" s="3">
+        <f>AVERAGE(B13:K13)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1.8852428000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.7687044000000001</v>
+      </c>
+      <c r="D16">
+        <v>1.8674366</v>
+      </c>
+      <c r="E16">
+        <v>1.9018373</v>
+      </c>
+      <c r="F16">
+        <v>1.8294638000000001</v>
+      </c>
+      <c r="G16">
+        <v>1.8720768999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.8918832000000001</v>
+      </c>
+      <c r="I16">
+        <v>1.8374124999999999</v>
+      </c>
+      <c r="J16">
+        <v>1.7625664000000001</v>
+      </c>
+      <c r="K16">
+        <v>1.8801867000000001</v>
+      </c>
+      <c r="L16" s="3">
+        <f>AVERAGE(B16:K16)</f>
+        <v>1.84968106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>152</v>
+      </c>
+      <c r="D17">
+        <v>152</v>
+      </c>
+      <c r="E17">
+        <v>152</v>
+      </c>
+      <c r="F17">
+        <v>152</v>
+      </c>
+      <c r="G17">
+        <v>152</v>
+      </c>
+      <c r="H17">
+        <v>152</v>
+      </c>
+      <c r="I17">
+        <v>152</v>
+      </c>
+      <c r="J17">
+        <v>152</v>
+      </c>
+      <c r="K17">
+        <v>152</v>
+      </c>
+      <c r="L17" s="3">
+        <f>AVERAGE(B17:K17)</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <v>76</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <v>76</v>
+      </c>
+      <c r="J18">
+        <v>76</v>
+      </c>
+      <c r="K18">
+        <v>76</v>
+      </c>
+      <c r="L18" s="3">
+        <f>AVERAGE(B18:K18)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+      <c r="I19">
+        <v>75</v>
+      </c>
+      <c r="J19">
+        <v>75</v>
+      </c>
+      <c r="K19">
+        <v>75</v>
+      </c>
+      <c r="L19" s="3">
+        <f>AVERAGE(B19:K19)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="e">
+        <f>AVERAGE(B22:K22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="e">
+        <f>AVERAGE(B23:K23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="e">
         <f>AVERAGE(B24:K24)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3245,24 +4179,34 @@
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="L25" s="4" t="e">
+      <c r="L25" s="3" t="e">
         <f>AVERAGE(B25:K25)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testing results.xlsx
+++ b/testing results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jophs\OneDrive\Desktop\Spring 2021\CMPT417\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9013B46B-3E69-45C4-B310-B2698E8FBAF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A872A91F-B025-403B-89BF-73FA9BEB83C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="5" xr2:uid="{D73C0DBF-5CB6-476E-B363-634DDA056996}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="779" activeTab="6" xr2:uid="{D73C0DBF-5CB6-476E-B363-634DDA056996}"/>
   </bookViews>
   <sheets>
     <sheet name="CBS Open Standard" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CBS Divider Standard" sheetId="8" r:id="rId4"/>
     <sheet name="IDCBS Divider Standard" sheetId="1" r:id="rId5"/>
     <sheet name="IDCBS Divider MDD" sheetId="3" r:id="rId6"/>
+    <sheet name="Comparison" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="44">
   <si>
     <t>Nodes Generated:</t>
   </si>
@@ -139,15 +140,48 @@
   <si>
     <t xml:space="preserve">36 agents is when it starts to run for a really long time </t>
   </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>Open Maze</t>
+  </si>
+  <si>
+    <t>Obstacle Maze</t>
+  </si>
+  <si>
+    <t>Number of Agents</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Nodes Generated</t>
+  </si>
+  <si>
+    <t>Nodes Expanded</t>
+  </si>
+  <si>
+    <t>IDCBS</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>IDCBS - with MDD</t>
+  </si>
+  <si>
+    <t>IDCBS - no MDD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +193,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -195,13 +250,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +593,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,27 +603,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -559,18 +631,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
@@ -609,7 +681,7 @@
       <c r="K4">
         <v>1.293277E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f>AVERAGE(B4:K4)</f>
         <v>1.2939000500000001E-2</v>
       </c>
@@ -694,18 +766,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -744,7 +816,7 @@
       <c r="K9">
         <v>9.6106767999999995E-2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <f>AVERAGE(B9:K9)</f>
         <v>9.4099163999999999E-2</v>
       </c>
@@ -832,18 +904,18 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
@@ -880,18 +952,18 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -971,27 +1043,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -999,18 +1071,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1173,18 +1245,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1347,18 +1419,18 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1521,18 +1593,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8BC7A8-2981-40AF-A89C-FBF2B6748F72}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -1748,27 +1820,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1776,18 +1848,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1950,18 +2022,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2124,18 +2196,18 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -2298,18 +2370,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -2395,27 +2467,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2423,18 +2495,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2545,7 @@
       <c r="K4">
         <v>2.19407E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f>AVERAGE(B4:K4)</f>
         <v>2.234413E-2</v>
       </c>
@@ -2558,18 +2630,18 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2680,7 @@
       <c r="K9">
         <v>0.1067193</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <f>AVERAGE(B9:K9)</f>
         <v>0.10710540000000002</v>
       </c>
@@ -2696,18 +2768,18 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2744,18 +2816,18 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -2820,7 +2892,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2830,27 +2902,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2858,18 +2930,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3032,18 +3104,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3206,18 +3278,18 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -3380,18 +3452,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -3571,7 +3643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145A2EAC-58B8-41AB-ABBD-8E6E159C9BF0}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -3582,27 +3654,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -3610,18 +3682,18 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3" t="s">
         <v>4</v>
       </c>
@@ -3784,18 +3856,18 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3958,18 +4030,18 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
@@ -4132,18 +4204,18 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,4 +4294,547 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A43F50-DEB1-4A8C-BF59-FB9503BE0AE4}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11">
+        <v>40</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.2939000000000001E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.4099000000000002E-2</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.234413E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.1071054</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4">
+        <v>27</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.454132E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.25226813999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.96767842000000004</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3.3509192400000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.6391469999999997E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.1051199</v>
+      </c>
+      <c r="I10" s="4">
+        <v>27.753118369999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>120.18409149999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4">
+        <v>114</v>
+      </c>
+      <c r="E11" s="4">
+        <v>202</v>
+      </c>
+      <c r="G11" s="4">
+        <v>28</v>
+      </c>
+      <c r="H11" s="4">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2906</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4">
+        <v>101</v>
+      </c>
+      <c r="G12" s="4">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4">
+        <v>12</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1453</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <v>20</v>
+      </c>
+      <c r="D16" s="11">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11">
+        <v>40</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11">
+        <v>10</v>
+      </c>
+      <c r="H16" s="11">
+        <v>20</v>
+      </c>
+      <c r="I16" s="11">
+        <v>30</v>
+      </c>
+      <c r="J16" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.454132E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.25226813999999997</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.96767842000000004</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3.3509192400000001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4.6391469999999997E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.1051199</v>
+      </c>
+      <c r="I18" s="13">
+        <v>27.753118369999999</v>
+      </c>
+      <c r="J18" s="13">
+        <v>120.18409149999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>52</v>
+      </c>
+      <c r="D19" s="13">
+        <v>114</v>
+      </c>
+      <c r="E19" s="13">
+        <v>202</v>
+      </c>
+      <c r="G19" s="4">
+        <v>28</v>
+      </c>
+      <c r="H19" s="4">
+        <v>24</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2906</v>
+      </c>
+      <c r="J19" s="13">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>26</v>
+      </c>
+      <c r="D20" s="13">
+        <v>57</v>
+      </c>
+      <c r="E20" s="13">
+        <v>101</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20" s="4">
+        <v>12</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1453</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.5743799999999999E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.1283948</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.86136555999999997</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.9386810000000001E-2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.14909471999999999</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.84968106</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4">
+        <v>24</v>
+      </c>
+      <c r="D24" s="4">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="4">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>28</v>
+      </c>
+      <c r="I24" s="4">
+        <v>152</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="4">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4">
+        <v>14</v>
+      </c>
+      <c r="I25" s="4">
+        <v>76</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:J14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>